--- a/data/i_4x4.xlsx
+++ b/data/i_4x4.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -21,16 +21,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -90,12 +88,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -118,18 +112,18 @@
   </sheetPr>
   <dimension ref="A1:BL63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="2" style="0" width="2.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="n">
@@ -323,7 +317,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -517,7 +511,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -711,7 +705,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -905,7 +899,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -969,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="0" t="n">
         <v>0</v>
@@ -1005,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="0" t="n">
         <v>0</v>
@@ -1099,7 +1093,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -1293,7 +1287,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -1487,7 +1481,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -1681,7 +1675,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -1875,7 +1869,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -2069,7 +2063,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -2263,7 +2257,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -2279,58 +2273,58 @@
         <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="X12" s="0" t="n">
         <v>0</v>
@@ -2457,7 +2451,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -2473,62 +2467,62 @@
         <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Y13" s="0" t="n">
         <v>0</v>
       </c>
@@ -2557,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="0" t="n">
         <v>0</v>
@@ -2651,7 +2645,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -2667,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>0</v>
@@ -2715,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>0</v>
@@ -2751,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="AH14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="0" t="n">
         <v>0</v>
@@ -2845,7 +2839,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -2861,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0</v>
@@ -2906,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="0" t="n">
         <v>1</v>
@@ -3039,7 +3033,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -3055,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0</v>
@@ -3103,43 +3097,43 @@
         <v>0</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="AI16" s="0" t="n">
         <v>0</v>
@@ -3233,7 +3227,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -3249,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0</v>
@@ -3297,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>1</v>
@@ -3333,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="AH17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="0" t="n">
         <v>0</v>
@@ -3427,7 +3421,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -3621,7 +3615,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -3815,7 +3809,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -4009,7 +4003,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
@@ -4203,7 +4197,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -4397,7 +4391,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -4591,7 +4585,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -4785,7 +4779,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -4979,7 +4973,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
@@ -5173,7 +5167,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="0" t="n">
         <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -5234,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="0" t="n">
         <v>0</v>
@@ -5243,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="0" t="n">
         <v>0</v>
@@ -5367,7 +5361,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
@@ -5561,7 +5555,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
@@ -5755,7 +5749,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="0" t="n">
         <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
@@ -5813,10 +5807,10 @@
         <v>0</v>
       </c>
       <c r="T30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="0" t="n">
         <v>0</v>
@@ -5949,7 +5943,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
@@ -6022,13 +6016,13 @@
         <v>0</v>
       </c>
       <c r="Y31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="Z31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="AB31" s="0" t="n">
         <v>0</v>
@@ -6143,7 +6137,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="0" t="n">
         <v>32</v>
       </c>
       <c r="B32" s="0" t="n">
@@ -6337,7 +6331,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
@@ -6531,7 +6525,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="0" t="n">
         <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
@@ -6598,10 +6592,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="X34" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" s="0" t="n">
         <v>0</v>
@@ -6725,7 +6719,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
@@ -6919,7 +6913,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B36" s="0" t="n">
@@ -6980,13 +6974,13 @@
         <v>0</v>
       </c>
       <c r="U36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="W36" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="0" t="n">
         <v>0</v>
@@ -7113,7 +7107,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="0" t="n">
         <v>37</v>
       </c>
       <c r="B37" s="0" t="n">
@@ -7307,7 +7301,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B38" s="0" t="n">
@@ -7365,16 +7359,16 @@
         <v>0</v>
       </c>
       <c r="T38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="U38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="X38" s="0" t="n">
         <v>0</v>
@@ -7501,7 +7495,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="0" t="n">
         <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
@@ -7574,13 +7568,13 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AA39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="0" t="n">
         <v>0</v>
@@ -7695,7 +7689,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="0" t="n">
         <v>40</v>
       </c>
       <c r="B40" s="0" t="n">
@@ -7889,7 +7883,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="0" t="n">
         <v>41</v>
       </c>
       <c r="B41" s="0" t="n">
@@ -7950,13 +7944,13 @@
         <v>0</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="W41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="0" t="n">
         <v>0</v>
@@ -8083,7 +8077,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="0" t="n">
         <v>42</v>
       </c>
       <c r="B42" s="0" t="n">
@@ -8153,16 +8147,16 @@
         <v>0</v>
       </c>
       <c r="X42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="Y42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="AB42" s="0" t="n">
         <v>0</v>
@@ -8277,7 +8271,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="0" t="n">
         <v>43</v>
       </c>
       <c r="B43" s="0" t="n">
@@ -8471,7 +8465,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="0" t="n">
         <v>44</v>
       </c>
       <c r="B44" s="0" t="n">
@@ -8665,7 +8659,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="0" t="n">
         <v>45</v>
       </c>
       <c r="B45" s="0" t="n">
@@ -8735,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45" s="0" t="n">
         <v>0</v>
@@ -8744,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="0" t="n">
         <v>0</v>
@@ -8859,7 +8853,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="0" t="n">
         <v>46</v>
       </c>
       <c r="B46" s="0" t="n">
@@ -9053,7 +9047,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="0" t="n">
         <v>47</v>
       </c>
       <c r="B47" s="0" t="n">
@@ -9247,7 +9241,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="0" t="n">
         <v>48</v>
       </c>
       <c r="B48" s="0" t="n">
@@ -9441,7 +9435,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="0" t="n">
         <v>49</v>
       </c>
       <c r="B49" s="0" t="n">
@@ -9502,46 +9496,46 @@
         <v>0</v>
       </c>
       <c r="U49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V49" s="0" t="n">
+      <c r="X49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="W49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="AI49" s="0" t="n">
         <v>0</v>
@@ -9635,7 +9629,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="0" t="n">
         <v>50</v>
       </c>
       <c r="B50" s="0" t="n">
@@ -9829,7 +9823,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="0" t="n">
         <v>51</v>
       </c>
       <c r="B51" s="0" t="n">
@@ -9884,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="S51" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" s="0" t="n">
         <v>0</v>
@@ -10023,7 +10017,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="0" t="n">
         <v>52</v>
       </c>
       <c r="B52" s="0" t="n">
@@ -10081,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="0" t="n">
         <v>0</v>
@@ -10090,7 +10084,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" s="0" t="n">
         <v>0</v>
@@ -10217,7 +10211,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="0" t="n">
         <v>53</v>
       </c>
       <c r="B53" s="0" t="n">
@@ -10411,7 +10405,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="0" t="n">
         <v>54</v>
       </c>
       <c r="B54" s="0" t="n">
@@ -10466,10 +10460,10 @@
         <v>0</v>
       </c>
       <c r="S54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="T54" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="U54" s="0" t="n">
         <v>0</v>
@@ -10605,7 +10599,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="0" t="n">
         <v>55</v>
       </c>
       <c r="B55" s="0" t="n">
@@ -10663,10 +10657,10 @@
         <v>0</v>
       </c>
       <c r="T55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="U55" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="V55" s="0" t="n">
         <v>0</v>
@@ -10799,7 +10793,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="0" t="n">
         <v>56</v>
       </c>
       <c r="B56" s="0" t="n">
@@ -10993,7 +10987,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="0" t="n">
         <v>57</v>
       </c>
       <c r="B57" s="0" t="n">
@@ -11187,7 +11181,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="0" t="n">
         <v>58</v>
       </c>
       <c r="B58" s="0" t="n">
@@ -11381,7 +11375,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="0" t="n">
         <v>59</v>
       </c>
       <c r="B59" s="0" t="n">
@@ -11575,7 +11569,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="0" t="n">
         <v>60</v>
       </c>
       <c r="B60" s="0" t="n">
@@ -11769,7 +11763,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="0" t="n">
         <v>61</v>
       </c>
       <c r="B61" s="0" t="n">
@@ -11963,7 +11957,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="0" t="n">
         <v>62</v>
       </c>
       <c r="B62" s="0" t="n">
@@ -12157,7 +12151,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="0" t="n">
         <v>63</v>
       </c>
       <c r="B63" s="0" t="n">
@@ -12353,7 +12347,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
